--- a/data/kht/QTV.xlsx
+++ b/data/kht/QTV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="710">
   <si>
     <t>Loại kiến thức (Chuyên môn/nghiệp vụ)</t>
   </si>
@@ -1086,6 +1086,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1096,6 +1097,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1104,6 +1106,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1114,6 +1117,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1124,6 +1128,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1132,6 +1137,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1241,6 +1247,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1251,6 +1258,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1259,6 +1267,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1389,6 +1398,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1399,6 +1409,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1442,6 +1453,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1452,6 +1464,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1460,6 +1473,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1470,6 +1484,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1480,6 +1495,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1488,6 +1504,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1498,6 +1515,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1508,6 +1526,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1516,6 +1535,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1526,6 +1546,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cambria"/>
         <charset val="163"/>
         <scheme val="major"/>
@@ -1536,6 +1557,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -1544,6 +1566,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="163"/>
       </rPr>
@@ -2047,6 +2070,486 @@
   </si>
   <si>
     <t>Gồm cả 1, 2, 3</t>
+  </si>
+  <si>
+    <t>Khi tầm nhìn ngang  &lt;600m, sai số quan trắc tối đa được phép là:</t>
+  </si>
+  <si>
+    <t>±50m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>100m</t>
+    </r>
+  </si>
+  <si>
+    <t>±10%</t>
+  </si>
+  <si>
+    <t>±20%</t>
+  </si>
+  <si>
+    <t>Khi tầm nhìn ngang từ 600m đến 1500m, sai số quan trắc tối đa được phép là:</t>
+  </si>
+  <si>
+    <t>±100m</t>
+  </si>
+  <si>
+    <t>±200m</t>
+  </si>
+  <si>
+    <t>Khi tầm nhìn ngang &gt;1500m, sai số quan trắc tối đa được phép là:</t>
+  </si>
+  <si>
+    <t>±400m</t>
+  </si>
+  <si>
+    <t>Nếu không thể xác định được tầm nhìn thịnh hành thì báo cáo nào sau đây là đúng?</t>
+  </si>
+  <si>
+    <t>Báo cáo hướng tầm nhìn quan trọng cho hoạt động bay</t>
+  </si>
+  <si>
+    <t>Báo cáo tầm nhìn nhỏ nhất mà không cần chỉ ra hướn</t>
+  </si>
+  <si>
+    <t>Báo cáo tầm nhìn cao nhất và hướng tầm nhìn thấp nhất</t>
+  </si>
+  <si>
+    <t>Cả (1) và (2) đều đúng</t>
+  </si>
+  <si>
+    <t>Khi tầm nhìn ngang &gt;800m, sai số quan trắc tối đa được phép là:</t>
+  </si>
+  <si>
+    <t>±10m</t>
+  </si>
+  <si>
+    <t>±25m</t>
+  </si>
+  <si>
+    <t>±5%</t>
+  </si>
+  <si>
+    <t>Trong  phương thức tiếp cận chính xác theo tiêu chuẩn CAT I, giá  trị RVR đặc trưng tại:</t>
+  </si>
+  <si>
+    <t>Giá trị RVR  cho phương thức tiếp cận chính xác theo tiêu chuẩn CAT II tại :</t>
+  </si>
+  <si>
+    <t>Giá trị RVR  cho phương thức tiếp cận chính xác theo tiêu chuẩn CAT III tại:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Quan trắc mây đặc trưng cho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="163"/>
+      </rPr>
+      <t>khu vực thềm đường CHC dược sử dụng cho:</t>
+    </r>
+  </si>
+  <si>
+    <t>Mây nguy hiểm là:</t>
+  </si>
+  <si>
+    <t>Mây có độ cao chân mây dưới 1500m( 5000ft) hoặc dưới độ cao vòng bay chờ tối thiểu có trị số cao nhất</t>
+  </si>
+  <si>
+    <t>Mây CB hoặc TCU tại bất kì độ cao nào</t>
+  </si>
+  <si>
+    <t>Không có đáp án nào đúng</t>
+  </si>
+  <si>
+    <t>Hướng gió được mã hóa là VRB khi nào?</t>
+  </si>
+  <si>
+    <t>Hướng gió biến thiên ≥ 60º nhưng &lt; 180º và tốc độ gió &lt; 3KT</t>
+  </si>
+  <si>
+    <t>Hướng gió biến thiên ≥ 180º với bất kì tốc độ nào</t>
+  </si>
+  <si>
+    <t>Hướng gió biến thiên &lt; 180º với bất kì tốc độ nào</t>
+  </si>
+  <si>
+    <t>Cả (1) và (2)</t>
+  </si>
+  <si>
+    <t>Nhiệt độ không khí, nhiệt độ điểm sương đặc trưng cho đường cất hạ cánh được:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Làm tròn lên số nguyên </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="163"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="163"/>
+      </rPr>
+      <t>C gần nhất nếu số lẻ của nhiệt độ lớn hơn hoặc bằng 0.5 độ C, làm tròn xuống nếu nhỏ hơn 0.5 độ C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Làm tròn xuống số nguyên </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Trong 10 phút trước kỳ quan trắc, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="204"/>
+      </rPr>
+      <t>khi trị số RVR trung bình 5 phút đầu lớn hớn trị số trung bình 5 phút sau 100m, ký hiệu “i” (xu hướng thay đổi RVR) trong METAR được mã hóa bằng chữ tắt nào dưới đây:</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi RVR &lt;400m, sai số quan trắc tối đa được phép là:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Trong 10 phút trước kỳ quan trắc, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="204"/>
+      </rPr>
+      <t>khi trị số RVR có sự dao động không rõ ràng, ký hiệu “i” (xu hướng thay đổi RVR) trong METAR được mã hóa bằng chữ tắt nào dưới đây:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Trong 10 phút trước kỳ quan trắc, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="204"/>
+      </rPr>
+      <t>khi trị số RVR trung bình 5 phút đầu nhỏ hớn trị số trung bình 5 phút sau 100m, xu hướng thay đổi RVR trong METAR được mã hóa bằng chữ tắt nào dưới đây:</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi RVR từ 400m đến 800m, sai số quan trắc tối đa được phép là:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Bản tin </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="204"/>
+      </rPr>
+      <t>dự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> tư vấn tro bụi núi lửa</t>
+    </r>
+  </si>
+  <si>
+    <t>Tầm nhìn xiên ( Slant Visibility) là gì?</t>
+  </si>
+  <si>
+    <t>Là khoảng cách mà người phi công đang bay trong giai đoan chuẩn bị hạ cánh có thể nhìn thấy được các vật chuẩn trên (đường băng) theo hướng hạ cất cánh</t>
+  </si>
+  <si>
+    <t>Là khoảng cách mà người phi công đang bay trong giai đoan chuẩn bị hạ cánh có thể nhìn thấy được các vật chuẩn trên (đường băng) theo hướng hai bên</t>
+  </si>
+  <si>
+    <t>Là khoảng cách mà người phi công đang bay trong giai đoan chuẩn bị hạ cánh có thể nhìn thấy được các vật chuẩn trên (đường băng)</t>
+  </si>
+  <si>
+    <t>Là khoảng cách mà người phi công đang bay trong giai đoan chuẩn bị hạ cánh</t>
+  </si>
+  <si>
+    <t>Cloud base is …</t>
+  </si>
+  <si>
+    <t>Distance from ground or runway to the base of cloud</t>
+  </si>
+  <si>
+    <t>Distance from ground or runway to the icing area</t>
+  </si>
+  <si>
+    <t>Distance from ground or runway to the stratosphere</t>
+  </si>
+  <si>
+    <t>Distance from ground or runway to the top of cloud</t>
+  </si>
+  <si>
+    <t>Theo thông tư 19 Trạm quan trắc khí tượng sân bay thực hiện lưu trữ?</t>
+  </si>
+  <si>
+    <t>Thời hạn tối thiểu 05 năm: sổ ghi số liệu METAR/SPECI</t>
+  </si>
+  <si>
+    <t>Thời hạn 02 năm: dữ liệu các điện văn khí tượng phát đi, nhận đến</t>
+  </si>
+  <si>
+    <t>Thời hạn 01 năm: dữ liệu các điện văn khí tượng phát đi, nhận đến</t>
+  </si>
+  <si>
+    <t>Tầm nhìn thẳng đứng được thiết lập trong bản tin SPECI khi RVR thay đổi qua các ngưỡng nào sau đây?</t>
+  </si>
+  <si>
+    <t>30m, 60m, 150m, 300m, 450m</t>
+  </si>
+  <si>
+    <t>30m, 90m, 150m, 300m</t>
+  </si>
+  <si>
+    <t>30m, 60m, 200m, 300m</t>
+  </si>
+  <si>
+    <t>30m, 60m, 150m, 300m</t>
+  </si>
+  <si>
+    <t>Bản tin METAR nào sau đây là phát đúng quy định?</t>
+  </si>
+  <si>
+    <t>METAR VVTS 080700Z 25022G39KT 0800 R25R/0800VP1500D +TSRA SQ SCT013 SCT015CB BKN100 25/24 Q1005 BECMG TL0745 25025G40KT 3000 TSRA=</t>
+  </si>
+  <si>
+    <t>METAR VVTS 080700Z 25012G39KT 0800 R25R/800VP1500D +TSRA SQ SCT013 SCT015CB BKN100 25/24 Q1005 BECMG TL0745 25025G40KT 3000 TSRA=</t>
+  </si>
+  <si>
+    <t>METAR VVTS 080700Z 25022G39KT 800 R25R/800VP1500D +TSRA SQ SCT013 SCT015CB BKN100 25/24 Q1005 BECMG TL0745 25025G40KT 3000 TSRA=</t>
+  </si>
+  <si>
+    <t>METAR VVTS 080700Z 25022G39KT 0800 R25R/800VP1500D +TSRA SQ SCT013 BKN100 25/24 Q1005 BECMG TL0745 25025G40KT 3000 TSRA=</t>
+  </si>
+  <si>
+    <t>Which of the following weather reports could be, in accordance with the regulations, abbreviated to "CAVOK"?</t>
+  </si>
+  <si>
+    <t>24009KT 6000 RA SCT010 OVC030 12/11 Q1007 TEMPO 4000 =</t>
+  </si>
+  <si>
+    <t>29010KT 9999 SCT045TCU 16/12 Q1015 RESHRA NOSIG =</t>
+  </si>
+  <si>
+    <t>04012G26KT 9999 BKN030 11/07 Q1024 NOSIG =</t>
+  </si>
+  <si>
+    <t>15003KT 9999 BKN100 17/11 Q1024 NOSIG =</t>
+  </si>
+  <si>
+    <t>27019G37KT 9999 BKN050 18/14 Q1016 NOSIG =</t>
+  </si>
+  <si>
+    <t>34004KT 7000 MIFG SCT260 09/08 Q1029 BECMG 1600 =</t>
+  </si>
+  <si>
+    <t>00000KT 0100 FG VV001 11/11 Q1025 BECMG 0500 =</t>
+  </si>
+  <si>
+    <t>26012KT 8000 SHRA BKN025 16/12 Q1018 NOSIG =</t>
+  </si>
+  <si>
+    <t>Which of the following statements is an interpretation of the METAR ? 25020G38KT 1200 +TSGR BKN006 BKN015CB 23/18 Q1016 BECMG 22010KT 6000 NSW SCT015 BKN040 =</t>
+  </si>
+  <si>
+    <t>Broken, cloud base 600 feet and 1500 feet, temperature 18°C</t>
+  </si>
+  <si>
+    <t>Wind 250°, thunderstorm with moderate hail, QNH 1016 hPa</t>
+  </si>
+  <si>
+    <t>Gusts of 38 knots, thunderstorm with heavy hail, dew point 18°C</t>
+  </si>
+  <si>
+    <t>Mean wind speed 20-38 knots, meteorological visibility 1200 metres, temperature 23°C</t>
+  </si>
+  <si>
+    <t>Which of the following statements is an interpretation of the METAR ? 00000KT 0200 R14/0800U R16/P1500U FZFG VV001 m03/m03 Q1022 BECMG 0800 =</t>
+  </si>
+  <si>
+    <t>RVR for runway 14  800 metres, vertical visibility 100 feet, calm</t>
+  </si>
+  <si>
+    <t>Meteorological visibility 200 metres, RVR for runway 16 1500 metres, vertical visibility 100 metres</t>
+  </si>
+  <si>
+    <t>Meteorological visibility 200 feet, RVR for runway 16 more than 1500 metres, fog with hoar frost</t>
+  </si>
+  <si>
+    <t>Meteorological visibility for runway 14 800 metres, RVR for runway 16 more than 1500 metres</t>
+  </si>
+  <si>
+    <t>Các thuật ngữ sau thuật ngữ nào chỉ đặc tính của hiện tượng thời tiết?</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>FZ</t>
+  </si>
+  <si>
+    <t>Cả (1), (2) và (3) đều đúng</t>
+  </si>
+  <si>
+    <t>Tầm nhìn thịnh hành quan trắc được 5500m, có mù mã hóa nào sau đây là đúng quy định?</t>
+  </si>
+  <si>
+    <t>5500 -BR</t>
+  </si>
+  <si>
+    <t>5000 BR</t>
+  </si>
+  <si>
+    <t>Bản tin METAR nào sau đây là đúng?</t>
+  </si>
+  <si>
+    <t>METAR VVCS 031030Z 25015KT 220V250 9999 SCT015 FEW017CB 27/25 Q1008 NOSIG=</t>
+  </si>
+  <si>
+    <t>METAR VVCS 031030 25015KT 9999 SCT015 FEW017CB 27/25 Q1008 NOSIG=</t>
+  </si>
+  <si>
+    <t>METAR VVCS 031030Z 25015KT 9999 TS SCT015 FEW017CB 27/25 Q1008 NOSIG=</t>
+  </si>
+  <si>
+    <t>METAR VVCS 031030Z 25015G20KT 9999 SCT015 FEW017CB 27/25 Q1008 NOSIG=</t>
+  </si>
+  <si>
+    <t>Tầm nhìn trên đường bay (Flight Visibility) là gì?</t>
+  </si>
+  <si>
+    <t>Là tầm nhìn xa về phía trước của phi công khi đang bay. Tầm nhìn trên đường bay phụ thuộc vào trạng thái mây ở mực đang bay</t>
+  </si>
+  <si>
+    <t>Là tầm nhìn xa về phía trước của phi công khi đang bay</t>
+  </si>
+  <si>
+    <t>Là tầm nhìn xa về phía trước của phi công khi đang bay. Tầm nhìn trên đường bay không phụ thuộc vào trạng thái mây ở mực đang bay</t>
+  </si>
+  <si>
+    <t>Là tầm nhìn xa về phía trước của phi công khi đang bay. Tầm nhìn trên đường bay không phụ thuộc vào trạng thái mây ở bay cao</t>
   </si>
 </sst>
 </file>
@@ -2054,12 +2557,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2080,10 +2583,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
       <charset val="163"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2094,14 +2598,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2130,17 +2642,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2160,29 +2664,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2194,29 +2675,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2237,6 +2695,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <name val="Times New Roman"/>
@@ -2245,13 +2749,54 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="163"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2275,7 +2820,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2293,55 +2982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,108 +3001,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,17 +3055,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2541,17 +3079,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2571,26 +3103,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2605,61 +3117,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2668,92 +3213,92 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2769,13 +3314,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3126,10 +3668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A53" sqref="$A53:$XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3137,8 +3679,8 @@
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="50.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="24.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="27.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="31.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="35.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="28.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="31.1666666666667" customWidth="1"/>
   </cols>
@@ -3196,7 +3738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:7">
+    <row r="4" ht="42.75" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -3217,7 +3759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:7">
+    <row r="5" ht="57" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
@@ -3238,7 +3780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="71.25" spans="1:7">
+    <row r="6" ht="57" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>22</v>
@@ -3280,7 +3822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="71.25" spans="1:7">
+    <row r="8" ht="57" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>32</v>
@@ -3343,7 +3885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="71.25" spans="1:7">
+    <row r="11" ht="57" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>46</v>
@@ -3469,7 +4011,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" ht="71.25" spans="1:7">
+    <row r="17" ht="57" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>75</v>
@@ -3511,7 +4053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" ht="71.25" spans="1:7">
+    <row r="19" ht="57" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>83</v>
@@ -3553,7 +4095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" ht="85.5" spans="1:7">
+    <row r="21" ht="71.25" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>92</v>
@@ -3574,7 +4116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" ht="71.25" spans="1:7">
+    <row r="22" ht="57" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>97</v>
@@ -3637,7 +4179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" ht="57" spans="1:7">
+    <row r="25" ht="57" customHeight="1" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>112</v>
@@ -3721,7 +4263,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" ht="57" spans="1:7">
+    <row r="29" ht="57" customHeight="1" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>127</v>
@@ -3763,7 +4305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" ht="42.75" spans="1:7">
+    <row r="31" ht="42.75" customHeight="1" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>136</v>
@@ -3847,7 +4389,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" ht="42.75" spans="1:7">
+    <row r="35" ht="28.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>147</v>
@@ -3868,7 +4410,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" ht="42.75" spans="1:7">
+    <row r="36" ht="28.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>152</v>
@@ -3889,7 +4431,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" ht="42.75" spans="1:7">
+    <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>153</v>
@@ -4036,7 +4578,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" ht="42.75" spans="1:7">
+    <row r="44" ht="28.5" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>168</v>
@@ -4225,2119 +4767,2760 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:7">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
+    <row r="53" ht="28.5" spans="1:7">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="54" ht="28.5" spans="1:7">
       <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="4">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>203</v>
+      <c r="B54" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="5">
+        <v>4</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="1:7">
       <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>210</v>
+      <c r="B55" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="56" ht="28.5" spans="1:7">
       <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="4">
-        <v>2</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" ht="28.5" spans="1:7">
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:7">
       <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>219</v>
+      <c r="B57" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
       <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="5">
         <v>3</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>224</v>
+      <c r="G58" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:7">
       <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:7">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="5">
         <v>3</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" ht="28.5" spans="1:7">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C60" s="4">
-        <v>2</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>233</v>
+      <c r="D60" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:7">
       <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="4">
-        <v>3</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="B61" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="62" ht="14.25" spans="1:7">
+      <c r="E61" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" ht="28.5" spans="1:7">
       <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="4">
-        <v>2</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>242</v>
+      <c r="B62" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="63" ht="28.5" spans="1:7">
       <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="B63" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="5">
+        <v>4</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:7">
       <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="5">
         <v>4</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" ht="28.5" spans="1:7">
+    </row>
+    <row r="65" ht="14.25" spans="1:7">
       <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="B65" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="5">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" ht="71.25" spans="1:7">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="5">
         <v>4</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" spans="1:7">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C66" s="4">
-        <v>3</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>256</v>
+      <c r="D66" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="67" ht="71.25" spans="1:7">
       <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C67" s="4">
+      <c r="B67" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="5">
         <v>4</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" ht="85.5" spans="1:7">
+      <c r="D67" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" ht="28.5" spans="1:7">
       <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" s="4">
-        <v>4</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>266</v>
+      <c r="B68" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="69" ht="28.5" spans="1:7">
       <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="4">
-        <v>3</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>271</v>
+      <c r="B69" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="5">
+        <v>4</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="70" ht="28.5" spans="1:7">
       <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="4">
-        <v>4</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" ht="28.5" spans="1:7">
+      <c r="B70" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" ht="71.25" spans="1:7">
       <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="4">
+      <c r="B71" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" ht="71.25" spans="1:7">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="5">
         <v>2</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="72" ht="85.5" spans="1:7">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C72" s="4">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>286</v>
+      <c r="D72" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="73" ht="71.25" spans="1:7">
       <c r="A73" s="4"/>
-      <c r="B73" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C73" s="4">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>291</v>
+      <c r="B73" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="74" ht="71.25" spans="1:7">
       <c r="A74" s="4"/>
-      <c r="B74" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C74" s="4">
-        <v>3</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" ht="99.75" spans="1:7">
+      <c r="B74" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" ht="28.5" spans="1:7">
       <c r="A75" s="4"/>
-      <c r="B75" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="B75" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" s="5">
         <v>1</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>301</v>
+      <c r="D75" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="76" ht="28.5" spans="1:7">
       <c r="A76" s="4"/>
-      <c r="B76" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" ht="28.5" spans="1:7">
+      <c r="B76" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76" s="5">
+        <v>4</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" ht="42.75" spans="1:7">
       <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C77" s="4">
+      <c r="B77" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" s="5">
         <v>4</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" ht="57" spans="1:7">
+      <c r="D77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" ht="42.75" spans="1:7">
       <c r="A78" s="4"/>
-      <c r="B78" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="B78" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="5">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" ht="42.75" spans="1:7">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="5">
         <v>4</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" ht="57" spans="1:7">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="4">
-        <v>3</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>176</v>
+      <c r="D79" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="80" ht="42.75" spans="1:7">
       <c r="A80" s="4"/>
-      <c r="B80" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="B80" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" s="5">
+        <v>3</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" ht="28.5" spans="1:7">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:7">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" s="5">
         <v>4</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="81" ht="42.75" spans="1:7">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="D82" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" ht="42.75" spans="1:7">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C83" s="5">
         <v>3</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" ht="28.5" spans="1:7">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:7">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C83" s="4">
-        <v>4</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>336</v>
+      <c r="D83" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="84" ht="42.75" spans="1:7">
       <c r="A84" s="4"/>
-      <c r="B84" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="B84" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" ht="30.75" spans="1:7">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="5">
         <v>3</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="85" ht="42.75" spans="1:7">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C85" s="4">
+      <c r="D85" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" ht="42.75" spans="1:7">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" s="5">
         <v>2</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="86" ht="30.75" spans="1:7">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C86" s="4">
-        <v>3</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>351</v>
+      <c r="D86" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="87" ht="42.75" spans="1:7">
       <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="B87" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" ht="57" spans="1:7">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" s="5">
+        <v>3</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" ht="28.5" spans="1:7">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C89" s="5">
+        <v>4</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" ht="42.75" spans="1:7">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C90" s="5">
         <v>2</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="88" ht="42.75" spans="1:7">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C88" s="4">
-        <v>1</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" ht="85.5" spans="1:7">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C89" s="4">
-        <v>3</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="90" ht="28.5" spans="1:7">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="D90" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" ht="28.5" spans="1:7">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" s="5">
         <v>4</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" ht="42.75" spans="1:7">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C91" s="4">
-        <v>2</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>266</v>
+      <c r="D91" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="92" ht="28.5" spans="1:7">
       <c r="A92" s="4"/>
-      <c r="B92" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="B92" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" ht="57" spans="1:7">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" s="5">
         <v>4</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="93" ht="28.5" spans="1:7">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C93" s="4">
+      <c r="D93" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" ht="30.75" spans="1:7">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" ht="57" spans="1:7">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" s="5">
         <v>2</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" ht="57" spans="1:7">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C94" s="4">
-        <v>4</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" ht="30.75" spans="1:7">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C95" s="4">
+      <c r="D95" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96" ht="28.5" spans="1:7">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C96" s="5">
         <v>1</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="96" ht="57" spans="1:7">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C96" s="4">
-        <v>2</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>393</v>
+      <c r="D96" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="97" ht="28.5" spans="1:7">
       <c r="A97" s="4"/>
-      <c r="B97" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C97" s="4">
-        <v>1</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="B97" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="98" ht="28.5" spans="1:7">
       <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C98" s="4">
-        <v>2</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="B98" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C98" s="5">
+        <v>3</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="99" ht="28.5" spans="1:7">
       <c r="A99" s="4"/>
-      <c r="B99" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="B99" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C99" s="5">
+        <v>4</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" ht="42.75" spans="1:7">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C100" s="5">
         <v>3</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="100" ht="28.5" spans="1:7">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="D100" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" ht="128.25" spans="1:7">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C101" s="5">
+        <v>3</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" ht="114" spans="1:7">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" ht="28.5" spans="1:7">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C103" s="5">
         <v>4</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="101" ht="71.25" spans="1:7">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C101" s="4">
+      <c r="D103" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" ht="114" spans="1:7">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C104" s="5">
         <v>3</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="102" ht="128.25" spans="1:7">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C102" s="4">
+      <c r="D104" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="105" ht="43.5" spans="1:7">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="106" ht="42.75" spans="1:7">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="107" ht="99.75" spans="1:7">
+      <c r="A107" s="4"/>
+      <c r="B107" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" ht="28.5" spans="1:7">
+      <c r="A108" s="4"/>
+      <c r="B108" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C108" s="5">
         <v>3</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="103" ht="114" spans="1:7">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C103" s="4">
+      <c r="D108" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" ht="42.75" spans="1:7">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C109" s="5">
         <v>2</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="104" ht="42.75" spans="1:7">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C104" s="4">
+      <c r="D109" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" ht="28.5" spans="1:7">
+      <c r="A110" s="4"/>
+      <c r="B110" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C110" s="5">
         <v>4</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" ht="128.25" spans="1:7">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C105" s="4">
-        <v>3</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="106" ht="43.5" spans="1:7">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C106" s="4">
+      <c r="D110" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" ht="42.75" spans="1:7">
+      <c r="A111" s="4"/>
+      <c r="B111" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" ht="28.5" spans="1:7">
+      <c r="A112" s="4"/>
+      <c r="B112" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C112" s="5">
+        <v>4</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" ht="42.75" spans="1:7">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C113" s="5">
         <v>1</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="107" ht="42.75" spans="1:7">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C107" s="4">
-        <v>2</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" ht="128.25" spans="1:7">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C108" s="4">
-        <v>1</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="109" ht="28.5" spans="1:7">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C109" s="4">
-        <v>3</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="110" ht="42.75" spans="1:7">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C110" s="4">
-        <v>2</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" ht="28.5" spans="1:7">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C111" s="4">
-        <v>4</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" ht="42.75" spans="1:7">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C112" s="4">
-        <v>2</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="113" ht="28.5" spans="1:7">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C113" s="4">
-        <v>4</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>456</v>
+      <c r="G113" s="5" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="114" ht="42.75" spans="1:7">
       <c r="A114" s="4"/>
-      <c r="B114" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C114" s="4">
+      <c r="B114" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C114" s="5">
+        <v>3</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" ht="28.5" spans="1:7">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C115" s="5">
         <v>1</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="115" ht="42.75" spans="1:7">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C115" s="4">
-        <v>3</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="116" ht="28.5" spans="1:7">
       <c r="A116" s="4"/>
-      <c r="B116" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C116" s="4">
+      <c r="B116" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" ht="71.25" spans="1:7">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C117" s="5">
         <v>1</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="117" ht="28.5" spans="1:7">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C117" s="4">
+      <c r="D117" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" ht="57" spans="1:7">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" s="5">
         <v>2</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="118" ht="71.25" spans="1:7">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C118" s="4">
+      <c r="D118" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" ht="42.75" spans="1:7">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="5">
         <v>1</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" ht="71.25" spans="1:7">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C119" s="4">
+      <c r="D119" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="120" ht="71.25" spans="1:7">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" s="5">
         <v>2</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="120" ht="42.75" spans="1:7">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C120" s="4">
-        <v>1</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="121" ht="71.25" spans="1:7">
+      <c r="D120" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="121" ht="85.5" spans="1:7">
       <c r="A121" s="4"/>
-      <c r="B121" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C121" s="4">
+      <c r="B121" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C121" s="5">
         <v>2</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="122" ht="85.5" spans="1:7">
+      <c r="D121" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" ht="42.75" spans="1:7">
       <c r="A122" s="4"/>
-      <c r="B122" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C122" s="4">
-        <v>2</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>63</v>
+      <c r="B122" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C122" s="5">
+        <v>3</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="123" ht="42.75" spans="1:7">
       <c r="A123" s="4"/>
-      <c r="B123" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C123" s="4">
-        <v>3</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>485</v>
+      <c r="B123" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C123" s="5">
+        <v>1</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="124" ht="42.75" spans="1:7">
       <c r="A124" s="4"/>
-      <c r="B124" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C124" s="4">
-        <v>1</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="125" ht="42.75" spans="1:7">
+      <c r="B124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="5">
+        <v>4</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" ht="85.5" spans="1:7">
       <c r="A125" s="4"/>
-      <c r="B125" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C125" s="4">
+      <c r="B125" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C125" s="5">
         <v>4</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="126" ht="85.5" spans="1:7">
+      <c r="D125" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="126" ht="42.75" spans="1:7">
       <c r="A126" s="4"/>
-      <c r="B126" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C126" s="4">
-        <v>4</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>496</v>
+      <c r="B126" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C126" s="5">
+        <v>3</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="127" ht="57" spans="1:7">
       <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C127" s="4">
-        <v>3</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="128" ht="57" spans="1:7">
+      <c r="B127" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="5">
+        <v>4</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="128" ht="42.75" spans="1:7">
       <c r="A128" s="4"/>
-      <c r="B128" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C128" s="4">
-        <v>4</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>506</v>
+      <c r="B128" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="129" ht="42.75" spans="1:7">
       <c r="A129" s="4"/>
-      <c r="B129" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C129" s="4">
-        <v>2</v>
-      </c>
-      <c r="D129" s="4" t="s">
+      <c r="B129" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" s="5">
+        <v>4</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="5" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="130" ht="42.75" spans="1:7">
       <c r="A130" s="4"/>
-      <c r="B130" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C130" s="4">
-        <v>4</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="E130" s="4" t="s">
+      <c r="B130" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C130" s="5">
+        <v>1</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E130" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" s="5" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="131" ht="42.75" spans="1:7">
       <c r="A131" s="4"/>
-      <c r="B131" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C131" s="4">
-        <v>1</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="B131" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C131" s="5">
+        <v>3</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="132" ht="42.75" spans="1:7">
+    <row r="132" ht="71.25" spans="1:7">
       <c r="A132" s="4"/>
-      <c r="B132" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C132" s="4">
-        <v>3</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>511</v>
+      <c r="B132" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C132" s="5">
+        <v>4</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="133" ht="71.25" spans="1:7">
       <c r="A133" s="4"/>
-      <c r="B133" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="C133" s="4">
+      <c r="B133" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C133" s="5">
+        <v>2</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="134" ht="42.75" spans="1:7">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C134" s="5">
         <v>4</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="134" ht="71.25" spans="1:7">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C134" s="4">
-        <v>2</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="135" ht="42.75" spans="1:7">
+      <c r="D134" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="135" ht="57" spans="1:7">
       <c r="A135" s="4"/>
-      <c r="B135" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C135" s="4">
-        <v>4</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="136" ht="57" spans="1:7">
+      <c r="B135" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C135" s="5">
+        <v>3</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" ht="71.25" spans="1:7">
       <c r="A136" s="4"/>
-      <c r="B136" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C136" s="4">
+      <c r="B136" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C136" s="5">
+        <v>1</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="137" ht="28.5" spans="1:7">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C137" s="5">
         <v>3</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="137" ht="71.25" spans="1:7">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C137" s="4">
-        <v>1</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="138" ht="28.5" spans="1:7">
+      <c r="D137" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" ht="42.75" spans="1:7">
       <c r="A138" s="4"/>
-      <c r="B138" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C138" s="4">
+      <c r="B138" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C138" s="5">
         <v>3</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>336</v>
+      <c r="D138" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="139" ht="42.75" spans="1:7">
       <c r="A139" s="4"/>
-      <c r="B139" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C139" s="4">
-        <v>3</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>546</v>
+      <c r="B139" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C139" s="5">
+        <v>2</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="140" ht="42.75" spans="1:7">
       <c r="A140" s="4"/>
-      <c r="B140" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="C140" s="4">
+      <c r="B140" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="141" ht="71.25" spans="1:7">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C141" s="5">
         <v>2</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="141" ht="42.75" spans="1:7">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C141" s="4">
+      <c r="D141" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="142" ht="71.25" spans="1:7">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C142" s="5">
+        <v>4</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="143" ht="28.5" spans="1:7">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C143" s="5">
         <v>1</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="142" ht="85.5" spans="1:7">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C142" s="4">
+      <c r="D143" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="144" ht="71.25" spans="1:7">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C144" s="5">
         <v>2</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="143" ht="85.5" spans="1:7">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C143" s="4">
+      <c r="D144" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145" ht="71.25" spans="1:7">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C145" s="5">
         <v>4</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="144" ht="42.75" spans="1:7">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C144" s="4">
-        <v>1</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="145" ht="85.5" spans="1:7">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C145" s="4">
-        <v>2</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>570</v>
+      <c r="D145" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="146" ht="71.25" spans="1:7">
       <c r="A146" s="4"/>
-      <c r="B146" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C146" s="4">
-        <v>4</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="147" ht="71.25" spans="1:7">
+      <c r="B146" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C146" s="5">
+        <v>3</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="147" ht="42.75" spans="1:7">
       <c r="A147" s="4"/>
-      <c r="B147" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C147" s="4">
-        <v>3</v>
-      </c>
-      <c r="D147" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E147" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>578</v>
+      <c r="B147" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C147" s="5">
+        <v>1</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="148" ht="57" spans="1:7">
       <c r="A148" s="4"/>
-      <c r="B148" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C148" s="4">
-        <v>1</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="149" ht="57" spans="1:7">
+      <c r="B148" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C148" s="5">
+        <v>4</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" ht="42.75" spans="1:7">
       <c r="A149" s="4"/>
-      <c r="B149" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C149" s="4">
+      <c r="B149" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C149" s="5">
         <v>4</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>36</v>
+      <c r="D149" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="150" ht="57" spans="1:7">
       <c r="A150" s="4"/>
-      <c r="B150" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C150" s="4">
+      <c r="B150" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C150" s="5">
+        <v>3</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="151" ht="85.5" spans="1:7">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C151" s="5">
+        <v>2</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="152" ht="28.5" spans="1:7">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C152" s="5">
         <v>4</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="151" ht="57" spans="1:7">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="C151" s="4">
-        <v>3</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="152" ht="99.75" spans="1:7">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="C152" s="4">
-        <v>2</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>602</v>
+      <c r="D152" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="153" ht="28.5" spans="1:7">
       <c r="A153" s="4"/>
-      <c r="B153" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C153" s="4">
+      <c r="B153" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C153" s="5">
+        <v>1</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="154" ht="28.5" spans="1:7">
+      <c r="A154" s="4"/>
+      <c r="B154" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C154" s="5">
+        <v>3</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="155" ht="28.5" spans="1:7">
+      <c r="A155" s="4"/>
+      <c r="B155" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C155" s="5">
         <v>4</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>607</v>
+      <c r="D155" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="156" ht="42.75" spans="1:7">
+      <c r="A156" s="4"/>
+      <c r="B156" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C156" s="5">
+        <v>2</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="157" ht="28.5" spans="1:7">
+      <c r="A157" s="4"/>
+      <c r="B157" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C157" s="5">
+        <v>4</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="158" ht="28.5" spans="1:7">
+      <c r="A158" s="4"/>
+      <c r="B158" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C158" s="5">
+        <v>4</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" ht="28.5" spans="1:7">
+      <c r="A159" s="4"/>
+      <c r="B159" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C159" s="5">
+        <v>2</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" ht="28.5" spans="1:7">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C160" s="5">
+        <v>1</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" ht="30" spans="1:7">
+      <c r="A161" s="4"/>
+      <c r="B161" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C161" s="5">
+        <v>2</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" ht="57" spans="1:7">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C162" s="5">
+        <v>4</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="163" ht="42.75" spans="1:7">
+      <c r="A163" s="4"/>
+      <c r="B163" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C163" s="5">
+        <v>4</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="164" ht="75.75" spans="1:7">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C164" s="5">
+        <v>3</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="165" ht="71.25" spans="1:7">
+      <c r="A165" s="4"/>
+      <c r="B165" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C165" s="5">
+        <v>2</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="166" ht="28.5" spans="1:7">
+      <c r="A166" s="4"/>
+      <c r="B166" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C166" s="5">
+        <v>1</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="167" ht="57" spans="1:7">
+      <c r="A167" s="4"/>
+      <c r="B167" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C167" s="5">
+        <v>3</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" ht="71.25" spans="1:7">
+      <c r="A168" s="4"/>
+      <c r="B168" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C168" s="5">
+        <v>1</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="169" ht="28.5" spans="1:7">
+      <c r="A169" s="4"/>
+      <c r="B169" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C169" s="5">
+        <v>2</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="170" ht="42.75" spans="1:7">
+      <c r="A170" s="4"/>
+      <c r="B170" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C170" s="5">
+        <v>1</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" ht="85.5" spans="1:7">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="172" ht="42.75" spans="1:7">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="173" ht="42.75" spans="1:7">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C173" s="4">
+        <v>4</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="174" ht="42.75" spans="1:7">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C174" s="4">
+        <v>4</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="175" ht="99.75" spans="1:7">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="176" ht="42.75" spans="1:7">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C176" s="4">
+        <v>4</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="177" ht="42.75" spans="1:7">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="178" ht="57" spans="1:7">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C178" s="4">
+        <v>3</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="179" ht="57" spans="1:7">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C179" s="4">
+        <v>1</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="180" ht="28.5" spans="1:7">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C180" s="4">
+        <v>4</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="181" ht="28.5" spans="1:7">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C181" s="4">
+        <v>2</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="E181" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" ht="57" spans="1:7">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C182" s="4">
+        <v>3</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="183" ht="85.5" spans="1:7">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A53:G53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
